--- a/DataTable/StorageUpgradeCostTable.xlsx
+++ b/DataTable/StorageUpgradeCostTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seh00n/GitHub/ProjectF/DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D944CF68-A2B1-6849-8BEE-C94AAF4EE897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C1ED5F75-86F1-B741-A99E-B08AE1DAFC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="10880" windowWidth="16880" windowHeight="9700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,14 +47,15 @@
     <t>int</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
     <t>costItemID</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>costValue</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -669,7 +670,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -679,10 +680,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1046,22 +1044,22 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD39"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.5703125" style="5"/>
-    <col min="4" max="4" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.5703125" style="5"/>
+    <col min="1" max="1" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.5703125" style="4"/>
+    <col min="4" max="4" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.5703125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -1071,10 +1069,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1088,7 +1086,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1170,7 +1168,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="2">
@@ -1185,7 +1183,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>3</v>
       </c>
       <c r="C10" s="2">
@@ -1200,7 +1198,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>3</v>
       </c>
       <c r="C11" s="2">
@@ -1215,7 +1213,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>3</v>
       </c>
       <c r="C12" s="2">
@@ -1230,7 +1228,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>4</v>
       </c>
       <c r="C13" s="2">
@@ -1245,7 +1243,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>4</v>
       </c>
       <c r="C14" s="2">
@@ -1260,7 +1258,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>4</v>
       </c>
       <c r="C15" s="2">
@@ -1275,7 +1273,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>5</v>
       </c>
       <c r="C16" s="2">
@@ -1290,7 +1288,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>5</v>
       </c>
       <c r="C17" s="2">
@@ -1305,7 +1303,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>5</v>
       </c>
       <c r="C18" s="2">
@@ -1320,7 +1318,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>6</v>
       </c>
       <c r="C19" s="2">
@@ -1335,7 +1333,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>6</v>
       </c>
       <c r="C20" s="2">
@@ -1350,7 +1348,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>6</v>
       </c>
       <c r="C21" s="2">
@@ -1365,7 +1363,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>7</v>
       </c>
       <c r="C22" s="2">
@@ -1380,7 +1378,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>7</v>
       </c>
       <c r="C23" s="2">
@@ -1395,7 +1393,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>7</v>
       </c>
       <c r="C24" s="2">
@@ -1410,7 +1408,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>8</v>
       </c>
       <c r="C25" s="2">
@@ -1425,7 +1423,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>8</v>
       </c>
       <c r="C26" s="2">
@@ -1440,7 +1438,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>8</v>
       </c>
       <c r="C27" s="2">
@@ -1455,7 +1453,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>9</v>
       </c>
       <c r="C28" s="2">
@@ -1470,7 +1468,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>9</v>
       </c>
       <c r="C29" s="2">
@@ -1485,7 +1483,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>9</v>
       </c>
       <c r="C30" s="2">
@@ -1500,7 +1498,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>10</v>
       </c>
       <c r="C31" s="2">
@@ -1515,7 +1513,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>10</v>
       </c>
       <c r="C32" s="2">
@@ -1530,7 +1528,7 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>10</v>
       </c>
       <c r="C33" s="2">
@@ -1545,7 +1543,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>11</v>
       </c>
       <c r="C34" s="2">
@@ -1560,7 +1558,7 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>11</v>
       </c>
       <c r="C35" s="2">
@@ -1575,7 +1573,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>11</v>
       </c>
       <c r="C36" s="2">
@@ -1590,7 +1588,7 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>12</v>
       </c>
       <c r="C37" s="2">
@@ -1605,7 +1603,7 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="2">
         <v>12</v>
       </c>
       <c r="C38" s="2">
@@ -1620,7 +1618,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="2">
         <v>12</v>
       </c>
       <c r="C39" s="2">

--- a/DataTable/StorageUpgradeCostTable.xlsx
+++ b/DataTable/StorageUpgradeCostTable.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seh00n/GitHub/ProjectF/DataTable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unityProject\ProjectF\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C1ED5F75-86F1-B741-A99E-B08AE1DAFC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6AE325A5-58FE-43F0-9EC9-770904265BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="10880" windowWidth="16880" windowHeight="9700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StorageUpgradeCostTable" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="8" uniqueCount="6">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="53" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -58,12 +58,56 @@
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -411,7 +455,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <start/>
       <end/>
@@ -541,6 +585,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <start style="thin">
+        <color indexed="64"/>
+      </start>
+      <end style="thin">
+        <color indexed="64"/>
+      </end>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
+        <color indexed="64"/>
+      </start>
+      <end style="thin">
+        <color indexed="64"/>
+      </end>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -670,7 +742,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -684,6 +756,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1041,27 +1122,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.5703125" style="4"/>
-    <col min="4" max="4" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.5703125" style="4"/>
+    <col min="1" max="1" width="15.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.5546875" style="4"/>
+    <col min="4" max="4" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1075,7 +1156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1089,547 +1170,725 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>0</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5">
+        <v>6</v>
+      </c>
+      <c r="C19" s="5">
+        <v>7</v>
+      </c>
+      <c r="D19" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>16</v>
+      </c>
+      <c r="B20" s="5">
+        <v>6</v>
+      </c>
+      <c r="C20" s="5">
+        <v>10</v>
+      </c>
+      <c r="D20" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>17</v>
+      </c>
+      <c r="B21" s="5">
+        <v>6</v>
+      </c>
+      <c r="C21" s="5">
+        <v>11</v>
+      </c>
+      <c r="D21" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>18</v>
+      </c>
+      <c r="B22" s="5">
+        <v>7</v>
+      </c>
+      <c r="C22" s="5">
+        <v>8</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>19</v>
+      </c>
+      <c r="B23" s="5">
+        <v>7</v>
+      </c>
+      <c r="C23" s="5">
+        <v>10</v>
+      </c>
+      <c r="D23" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>20</v>
+      </c>
+      <c r="B24" s="5">
+        <v>7</v>
+      </c>
+      <c r="C24" s="5">
+        <v>11</v>
+      </c>
+      <c r="D24" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>21</v>
+      </c>
+      <c r="B25" s="5">
+        <v>7</v>
+      </c>
+      <c r="C25" s="5">
+        <v>12</v>
+      </c>
+      <c r="D25" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>22</v>
+      </c>
+      <c r="B26" s="5">
+        <v>8</v>
+      </c>
+      <c r="C26" s="5">
         <v>0</v>
       </c>
-      <c r="D4" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2">
-        <f>A4+1</f>
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2">
-        <f t="shared" ref="A6:A39" si="0">A5+1</f>
+      <c r="D26" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>23</v>
+      </c>
+      <c r="B27" s="5">
+        <v>8</v>
+      </c>
+      <c r="C27" s="5">
+        <v>5</v>
+      </c>
+      <c r="D27" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>24</v>
+      </c>
+      <c r="B28" s="5">
+        <v>8</v>
+      </c>
+      <c r="C28" s="5">
+        <v>10</v>
+      </c>
+      <c r="D28" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>25</v>
+      </c>
+      <c r="B29" s="5">
+        <v>9</v>
+      </c>
+      <c r="C29" s="5">
+        <v>3</v>
+      </c>
+      <c r="D29" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>26</v>
+      </c>
+      <c r="B30" s="5">
+        <v>9</v>
+      </c>
+      <c r="C30" s="5">
+        <v>7</v>
+      </c>
+      <c r="D30" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>27</v>
+      </c>
+      <c r="B31" s="5">
+        <v>9</v>
+      </c>
+      <c r="C31" s="5">
+        <v>8</v>
+      </c>
+      <c r="D31" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>28</v>
+      </c>
+      <c r="B32" s="5">
+        <v>9</v>
+      </c>
+      <c r="C32" s="5">
+        <v>13</v>
+      </c>
+      <c r="D32" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>29</v>
+      </c>
+      <c r="B33" s="5">
+        <v>10</v>
+      </c>
+      <c r="C33" s="5">
+        <v>4</v>
+      </c>
+      <c r="D33" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>30</v>
+      </c>
+      <c r="B34" s="5">
+        <v>10</v>
+      </c>
+      <c r="C34" s="5">
+        <v>6</v>
+      </c>
+      <c r="D34" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>31</v>
+      </c>
+      <c r="B35" s="5">
+        <v>10</v>
+      </c>
+      <c r="C35" s="5">
+        <v>13</v>
+      </c>
+      <c r="D35" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>32</v>
+      </c>
+      <c r="B36" s="5">
+        <v>11</v>
+      </c>
+      <c r="C36" s="5">
+        <v>9</v>
+      </c>
+      <c r="D36" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>33</v>
+      </c>
+      <c r="B37" s="5">
+        <v>11</v>
+      </c>
+      <c r="C37" s="5">
+        <v>15</v>
+      </c>
+      <c r="D37" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>34</v>
+      </c>
+      <c r="B38" s="5">
+        <v>11</v>
+      </c>
+      <c r="C38" s="5">
+        <v>16</v>
+      </c>
+      <c r="D38" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>35</v>
+      </c>
+      <c r="B39" s="5">
+        <v>11</v>
+      </c>
+      <c r="C39" s="5">
+        <v>17</v>
+      </c>
+      <c r="D39" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>36</v>
+      </c>
+      <c r="B40" s="5">
+        <v>12</v>
+      </c>
+      <c r="C40" s="5">
+        <v>6</v>
+      </c>
+      <c r="D40" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>37</v>
+      </c>
+      <c r="B41" s="5">
+        <v>12</v>
+      </c>
+      <c r="C41" s="5">
+        <v>9</v>
+      </c>
+      <c r="D41" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>38</v>
+      </c>
+      <c r="B42" s="5">
+        <v>12</v>
+      </c>
+      <c r="C42" s="5">
+        <v>10</v>
+      </c>
+      <c r="D42" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>39</v>
+      </c>
+      <c r="B43" s="5">
+        <v>12</v>
+      </c>
+      <c r="C43" s="5">
+        <v>13</v>
+      </c>
+      <c r="D43" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>40</v>
+      </c>
+      <c r="B44" s="5">
+        <v>12</v>
+      </c>
+      <c r="C44" s="5">
+        <v>17</v>
+      </c>
+      <c r="D44" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>41</v>
+      </c>
+      <c r="B45" s="5">
+        <v>13</v>
+      </c>
+      <c r="C45" s="5">
+        <v>4</v>
+      </c>
+      <c r="D45" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>42</v>
+      </c>
+      <c r="B46" s="5">
+        <v>13</v>
+      </c>
+      <c r="C46" s="5">
+        <v>11</v>
+      </c>
+      <c r="D46" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>43</v>
+      </c>
+      <c r="B47" s="5">
+        <v>13</v>
+      </c>
+      <c r="C47" s="5">
+        <v>16</v>
+      </c>
+      <c r="D47" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>44</v>
+      </c>
+      <c r="B48" s="5">
+        <v>13</v>
+      </c>
+      <c r="C48" s="5">
+        <v>18</v>
+      </c>
+      <c r="D48" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="7">
+        <v>45</v>
+      </c>
+      <c r="B49" s="7">
+        <v>13</v>
+      </c>
+      <c r="C49" s="7">
+        <v>6</v>
+      </c>
+      <c r="D49" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
+        <v>46</v>
+      </c>
+      <c r="B50" s="6">
+        <v>14</v>
+      </c>
+      <c r="C50" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2">
-        <f t="shared" si="0"/>
+      <c r="D50" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>47</v>
+      </c>
+      <c r="B51" s="5">
+        <v>14</v>
+      </c>
+      <c r="C51" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B10" s="2">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2">
-        <f t="shared" si="0"/>
+      <c r="D51" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>48</v>
+      </c>
+      <c r="B52" s="5">
+        <v>14</v>
+      </c>
+      <c r="C52" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="2">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2">
-        <v>7</v>
-      </c>
-      <c r="D11" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B12" s="2">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B13" s="2">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B14" s="2">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2">
-        <v>10</v>
-      </c>
-      <c r="D14" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B15" s="2">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2">
-        <v>11</v>
-      </c>
-      <c r="D15" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2">
-        <f t="shared" si="0"/>
+      <c r="D52" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>49</v>
+      </c>
+      <c r="B53" s="5">
+        <v>14</v>
+      </c>
+      <c r="C53" s="5">
         <v>12</v>
       </c>
-      <c r="B16" s="2">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2">
-        <v>12</v>
-      </c>
-      <c r="D16" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B17" s="2">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2">
-        <v>13</v>
-      </c>
-      <c r="D17" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2">
-        <f t="shared" si="0"/>
+      <c r="D53" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>50</v>
+      </c>
+      <c r="B54" s="5">
         <v>14</v>
       </c>
-      <c r="B18" s="2">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2">
-        <v>14</v>
-      </c>
-      <c r="D18" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2">
-        <f t="shared" si="0"/>
+      <c r="C54" s="5">
         <v>15</v>
       </c>
-      <c r="B19" s="2">
-        <v>6</v>
-      </c>
-      <c r="C19" s="2">
-        <v>15</v>
-      </c>
-      <c r="D19" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B20" s="2">
-        <v>6</v>
-      </c>
-      <c r="C20" s="2">
-        <v>16</v>
-      </c>
-      <c r="D20" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B21" s="2">
-        <v>6</v>
-      </c>
-      <c r="C21" s="2">
-        <v>17</v>
-      </c>
-      <c r="D21" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B22" s="2">
-        <v>7</v>
-      </c>
-      <c r="C22" s="2">
-        <v>18</v>
-      </c>
-      <c r="D22" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B23" s="2">
-        <v>7</v>
-      </c>
-      <c r="C23" s="2">
-        <v>19</v>
-      </c>
-      <c r="D23" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B24" s="2">
-        <v>7</v>
-      </c>
-      <c r="C24" s="2">
-        <v>20</v>
-      </c>
-      <c r="D24" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="2">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B25" s="2">
-        <v>8</v>
-      </c>
-      <c r="C25" s="2">
-        <v>21</v>
-      </c>
-      <c r="D25" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="2">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B26" s="2">
-        <v>8</v>
-      </c>
-      <c r="C26" s="2">
-        <v>22</v>
-      </c>
-      <c r="D26" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="2">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B27" s="2">
-        <v>8</v>
-      </c>
-      <c r="C27" s="2">
-        <v>23</v>
-      </c>
-      <c r="D27" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="2">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B28" s="2">
-        <v>9</v>
-      </c>
-      <c r="C28" s="2">
-        <v>24</v>
-      </c>
-      <c r="D28" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B29" s="2">
-        <v>9</v>
-      </c>
-      <c r="C29" s="2">
-        <v>25</v>
-      </c>
-      <c r="D29" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="2">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B30" s="2">
-        <v>9</v>
-      </c>
-      <c r="C30" s="2">
-        <v>26</v>
-      </c>
-      <c r="D30" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="2">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B31" s="2">
-        <v>10</v>
-      </c>
-      <c r="C31" s="2">
-        <v>27</v>
-      </c>
-      <c r="D31" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B32" s="2">
-        <v>10</v>
-      </c>
-      <c r="C32" s="2">
-        <v>28</v>
-      </c>
-      <c r="D32" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="2">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B33" s="2">
-        <v>10</v>
-      </c>
-      <c r="C33" s="2">
-        <v>29</v>
-      </c>
-      <c r="D33" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="2">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B34" s="2">
-        <v>11</v>
-      </c>
-      <c r="C34" s="2">
-        <v>30</v>
-      </c>
-      <c r="D34" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="2">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B35" s="2">
-        <v>11</v>
-      </c>
-      <c r="C35" s="2">
-        <v>31</v>
-      </c>
-      <c r="D35" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="2">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B36" s="2">
-        <v>11</v>
-      </c>
-      <c r="C36" s="2">
-        <v>32</v>
-      </c>
-      <c r="D36" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="2">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B37" s="2">
-        <v>12</v>
-      </c>
-      <c r="C37" s="2">
-        <v>33</v>
-      </c>
-      <c r="D37" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="2">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B38" s="2">
-        <v>12</v>
-      </c>
-      <c r="C38" s="2">
-        <v>34</v>
-      </c>
-      <c r="D38" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="2">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B39" s="2">
-        <v>12</v>
-      </c>
-      <c r="C39" s="2">
-        <v>35</v>
-      </c>
-      <c r="D39" s="2">
-        <v>100</v>
+      <c r="D54" s="5">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <ignoredErrors>
+    <ignoredError sqref="B4:D15 B18:D18 B16:C16 B17:C17 D16:D17" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/DataTable/StorageUpgradeCostTable.xlsx
+++ b/DataTable/StorageUpgradeCostTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unityProject\ProjectF\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6AE325A5-58FE-43F0-9EC9-770904265BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FC3D3F12-BBD3-46B1-B01E-9A31FDD44780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="53" uniqueCount="17">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="4" uniqueCount="4">
   <si>
     <t>id</t>
   </si>
@@ -44,70 +44,17 @@
     <t>level</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>costItemID</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>costValue</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -267,6 +214,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -455,7 +410,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <start/>
       <end/>
@@ -585,34 +540,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <start style="thin">
-        <color indexed="64"/>
-      </start>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start style="thin">
-        <color indexed="64"/>
-      </start>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -742,15 +669,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -758,14 +679,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1122,773 +1040,812 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.5546875" style="4"/>
-    <col min="4" max="4" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.5546875" style="4"/>
+    <col min="1" max="1" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.5546875" style="2"/>
+    <col min="4" max="4" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D7" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D10" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4">
+        <v>6</v>
+      </c>
+      <c r="D11" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D12" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="C13" s="4">
+        <v>7</v>
+      </c>
+      <c r="D13" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D14" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4">
+        <v>6</v>
+      </c>
+      <c r="C16" s="4">
+        <v>7</v>
+      </c>
+      <c r="D16" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4">
+        <v>6</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B18" s="4">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4">
+        <v>7</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4">
+        <v>7</v>
+      </c>
+      <c r="C20" s="4">
+        <v>10</v>
+      </c>
+      <c r="D20" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4">
+        <v>7</v>
+      </c>
+      <c r="C21" s="4">
+        <v>7</v>
+      </c>
+      <c r="D21" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4">
+        <v>7</v>
+      </c>
+      <c r="C22" s="4">
+        <v>11</v>
+      </c>
+      <c r="D22" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4">
+        <v>8</v>
+      </c>
+      <c r="C23" s="4">
+        <v>5</v>
+      </c>
+      <c r="D23" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4">
+        <v>8</v>
+      </c>
+      <c r="C24" s="4">
+        <v>6</v>
+      </c>
+      <c r="D24" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>22</v>
+      </c>
+      <c r="B25" s="4">
+        <v>8</v>
+      </c>
+      <c r="C25" s="4">
+        <v>12</v>
+      </c>
+      <c r="D25" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>23</v>
+      </c>
+      <c r="B26" s="4">
+        <v>8</v>
+      </c>
+      <c r="C26" s="4">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D26" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>24</v>
+      </c>
+      <c r="B27" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C27" s="4">
+        <v>9</v>
+      </c>
+      <c r="D27" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4">
+        <v>9</v>
+      </c>
+      <c r="C28" s="4">
+        <v>5</v>
+      </c>
+      <c r="D28" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4">
+        <v>9</v>
+      </c>
+      <c r="C29" s="4">
+        <v>9</v>
+      </c>
+      <c r="D29" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4">
+        <v>9</v>
+      </c>
+      <c r="C30" s="4">
+        <v>18</v>
+      </c>
+      <c r="D30" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4">
+        <v>9</v>
+      </c>
+      <c r="C31" s="4">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="D31" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>29</v>
+      </c>
+      <c r="B32" s="4">
+        <v>9</v>
+      </c>
+      <c r="C32" s="4">
+        <v>13</v>
+      </c>
+      <c r="D32" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>30</v>
+      </c>
+      <c r="B33" s="4">
+        <v>10</v>
+      </c>
+      <c r="C33" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D33" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>31</v>
+      </c>
+      <c r="B34" s="4">
+        <v>10</v>
+      </c>
+      <c r="C34" s="4">
+        <v>8</v>
+      </c>
+      <c r="D34" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>32</v>
+      </c>
+      <c r="B35" s="4">
+        <v>10</v>
+      </c>
+      <c r="C35" s="4">
+        <v>24</v>
+      </c>
+      <c r="D35" s="4">
         <v>14</v>
       </c>
-      <c r="D6" s="2" t="s">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>33</v>
+      </c>
+      <c r="B36" s="4">
+        <v>10</v>
+      </c>
+      <c r="C36" s="4">
+        <v>23</v>
+      </c>
+      <c r="D36" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>34</v>
+      </c>
+      <c r="B37" s="4">
+        <v>10</v>
+      </c>
+      <c r="C37" s="4">
+        <v>21</v>
+      </c>
+      <c r="D37" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>35</v>
+      </c>
+      <c r="B38" s="4">
+        <v>11</v>
+      </c>
+      <c r="C38" s="4">
+        <v>6</v>
+      </c>
+      <c r="D38" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>36</v>
+      </c>
+      <c r="B39" s="4">
+        <v>11</v>
+      </c>
+      <c r="C39" s="4">
+        <v>2</v>
+      </c>
+      <c r="D39" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>37</v>
+      </c>
+      <c r="B40" s="4">
+        <v>11</v>
+      </c>
+      <c r="C40" s="4">
+        <v>12</v>
+      </c>
+      <c r="D40" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>38</v>
+      </c>
+      <c r="B41" s="4">
+        <v>11</v>
+      </c>
+      <c r="C41" s="4">
+        <v>29</v>
+      </c>
+      <c r="D41" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>39</v>
+      </c>
+      <c r="B42" s="4">
+        <v>11</v>
+      </c>
+      <c r="C42" s="4">
+        <v>32</v>
+      </c>
+      <c r="D42" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>40</v>
+      </c>
+      <c r="B43" s="4">
+        <v>12</v>
+      </c>
+      <c r="C43" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="D43" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>41</v>
+      </c>
+      <c r="B44" s="4">
+        <v>12</v>
+      </c>
+      <c r="C44" s="4">
+        <v>4</v>
+      </c>
+      <c r="D44" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>42</v>
+      </c>
+      <c r="B45" s="4">
+        <v>12</v>
+      </c>
+      <c r="C45" s="4">
+        <v>34</v>
+      </c>
+      <c r="D45" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>43</v>
+      </c>
+      <c r="B46" s="4">
+        <v>12</v>
+      </c>
+      <c r="C46" s="4">
+        <v>36</v>
+      </c>
+      <c r="D46" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>44</v>
+      </c>
+      <c r="B47" s="4">
+        <v>12</v>
+      </c>
+      <c r="C47" s="4">
+        <v>2</v>
+      </c>
+      <c r="D47" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>45</v>
+      </c>
+      <c r="B48" s="4">
+        <v>13</v>
+      </c>
+      <c r="C48" s="4">
+        <v>2</v>
+      </c>
+      <c r="D48" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>46</v>
+      </c>
+      <c r="B49" s="4">
+        <v>13</v>
+      </c>
+      <c r="C49" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="D49" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>47</v>
+      </c>
+      <c r="B50" s="4">
+        <v>13</v>
+      </c>
+      <c r="C50" s="4">
+        <v>40</v>
+      </c>
+      <c r="D50" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>48</v>
+      </c>
+      <c r="B51" s="4">
+        <v>13</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0</v>
+      </c>
+      <c r="D51" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>49</v>
+      </c>
+      <c r="B52" s="4">
+        <v>13</v>
+      </c>
+      <c r="C52" s="4">
+        <v>42</v>
+      </c>
+      <c r="D52" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>50</v>
+      </c>
+      <c r="B53" s="4">
+        <v>14</v>
+      </c>
+      <c r="C53" s="4">
+        <v>9</v>
+      </c>
+      <c r="D53" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>51</v>
+      </c>
+      <c r="B54" s="4">
+        <v>14</v>
+      </c>
+      <c r="C54" s="4">
         <v>6</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="D54" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>52</v>
+      </c>
+      <c r="B55" s="4">
+        <v>14</v>
+      </c>
+      <c r="C55" s="4">
+        <v>10</v>
+      </c>
+      <c r="D55" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>53</v>
+      </c>
+      <c r="B56" s="4">
+        <v>14</v>
+      </c>
+      <c r="C56" s="4">
+        <v>36</v>
+      </c>
+      <c r="D56" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>54</v>
+      </c>
+      <c r="B57" s="4">
+        <v>14</v>
+      </c>
+      <c r="C57" s="4">
         <v>8</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="D57" s="4">
         <v>10</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>11</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>12</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>13</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>14</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>15</v>
-      </c>
-      <c r="B19" s="5">
-        <v>6</v>
-      </c>
-      <c r="C19" s="5">
-        <v>7</v>
-      </c>
-      <c r="D19" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>16</v>
-      </c>
-      <c r="B20" s="5">
-        <v>6</v>
-      </c>
-      <c r="C20" s="5">
-        <v>10</v>
-      </c>
-      <c r="D20" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>17</v>
-      </c>
-      <c r="B21" s="5">
-        <v>6</v>
-      </c>
-      <c r="C21" s="5">
-        <v>11</v>
-      </c>
-      <c r="D21" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>18</v>
-      </c>
-      <c r="B22" s="5">
-        <v>7</v>
-      </c>
-      <c r="C22" s="5">
-        <v>8</v>
-      </c>
-      <c r="D22" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
-        <v>19</v>
-      </c>
-      <c r="B23" s="5">
-        <v>7</v>
-      </c>
-      <c r="C23" s="5">
-        <v>10</v>
-      </c>
-      <c r="D23" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>20</v>
-      </c>
-      <c r="B24" s="5">
-        <v>7</v>
-      </c>
-      <c r="C24" s="5">
-        <v>11</v>
-      </c>
-      <c r="D24" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
-        <v>21</v>
-      </c>
-      <c r="B25" s="5">
-        <v>7</v>
-      </c>
-      <c r="C25" s="5">
-        <v>12</v>
-      </c>
-      <c r="D25" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
-        <v>22</v>
-      </c>
-      <c r="B26" s="5">
-        <v>8</v>
-      </c>
-      <c r="C26" s="5">
-        <v>0</v>
-      </c>
-      <c r="D26" s="5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <v>23</v>
-      </c>
-      <c r="B27" s="5">
-        <v>8</v>
-      </c>
-      <c r="C27" s="5">
-        <v>5</v>
-      </c>
-      <c r="D27" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>24</v>
-      </c>
-      <c r="B28" s="5">
-        <v>8</v>
-      </c>
-      <c r="C28" s="5">
-        <v>10</v>
-      </c>
-      <c r="D28" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
-        <v>25</v>
-      </c>
-      <c r="B29" s="5">
-        <v>9</v>
-      </c>
-      <c r="C29" s="5">
-        <v>3</v>
-      </c>
-      <c r="D29" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
-        <v>26</v>
-      </c>
-      <c r="B30" s="5">
-        <v>9</v>
-      </c>
-      <c r="C30" s="5">
-        <v>7</v>
-      </c>
-      <c r="D30" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
-        <v>27</v>
-      </c>
-      <c r="B31" s="5">
-        <v>9</v>
-      </c>
-      <c r="C31" s="5">
-        <v>8</v>
-      </c>
-      <c r="D31" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>28</v>
-      </c>
-      <c r="B32" s="5">
-        <v>9</v>
-      </c>
-      <c r="C32" s="5">
-        <v>13</v>
-      </c>
-      <c r="D32" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
-        <v>29</v>
-      </c>
-      <c r="B33" s="5">
-        <v>10</v>
-      </c>
-      <c r="C33" s="5">
-        <v>4</v>
-      </c>
-      <c r="D33" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
-        <v>30</v>
-      </c>
-      <c r="B34" s="5">
-        <v>10</v>
-      </c>
-      <c r="C34" s="5">
-        <v>6</v>
-      </c>
-      <c r="D34" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
-        <v>31</v>
-      </c>
-      <c r="B35" s="5">
-        <v>10</v>
-      </c>
-      <c r="C35" s="5">
-        <v>13</v>
-      </c>
-      <c r="D35" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>32</v>
-      </c>
-      <c r="B36" s="5">
-        <v>11</v>
-      </c>
-      <c r="C36" s="5">
-        <v>9</v>
-      </c>
-      <c r="D36" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
-        <v>33</v>
-      </c>
-      <c r="B37" s="5">
-        <v>11</v>
-      </c>
-      <c r="C37" s="5">
-        <v>15</v>
-      </c>
-      <c r="D37" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
-        <v>34</v>
-      </c>
-      <c r="B38" s="5">
-        <v>11</v>
-      </c>
-      <c r="C38" s="5">
-        <v>16</v>
-      </c>
-      <c r="D38" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="5">
-        <v>35</v>
-      </c>
-      <c r="B39" s="5">
-        <v>11</v>
-      </c>
-      <c r="C39" s="5">
-        <v>17</v>
-      </c>
-      <c r="D39" s="5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <v>36</v>
-      </c>
-      <c r="B40" s="5">
-        <v>12</v>
-      </c>
-      <c r="C40" s="5">
-        <v>6</v>
-      </c>
-      <c r="D40" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="5">
-        <v>37</v>
-      </c>
-      <c r="B41" s="5">
-        <v>12</v>
-      </c>
-      <c r="C41" s="5">
-        <v>9</v>
-      </c>
-      <c r="D41" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="5">
-        <v>38</v>
-      </c>
-      <c r="B42" s="5">
-        <v>12</v>
-      </c>
-      <c r="C42" s="5">
-        <v>10</v>
-      </c>
-      <c r="D42" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="5">
-        <v>39</v>
-      </c>
-      <c r="B43" s="5">
-        <v>12</v>
-      </c>
-      <c r="C43" s="5">
-        <v>13</v>
-      </c>
-      <c r="D43" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
-        <v>40</v>
-      </c>
-      <c r="B44" s="5">
-        <v>12</v>
-      </c>
-      <c r="C44" s="5">
-        <v>17</v>
-      </c>
-      <c r="D44" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="5">
-        <v>41</v>
-      </c>
-      <c r="B45" s="5">
-        <v>13</v>
-      </c>
-      <c r="C45" s="5">
-        <v>4</v>
-      </c>
-      <c r="D45" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="5">
-        <v>42</v>
-      </c>
-      <c r="B46" s="5">
-        <v>13</v>
-      </c>
-      <c r="C46" s="5">
-        <v>11</v>
-      </c>
-      <c r="D46" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="5">
-        <v>43</v>
-      </c>
-      <c r="B47" s="5">
-        <v>13</v>
-      </c>
-      <c r="C47" s="5">
-        <v>16</v>
-      </c>
-      <c r="D47" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
-        <v>44</v>
-      </c>
-      <c r="B48" s="5">
-        <v>13</v>
-      </c>
-      <c r="C48" s="5">
-        <v>18</v>
-      </c>
-      <c r="D48" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="7">
-        <v>45</v>
-      </c>
-      <c r="B49" s="7">
-        <v>13</v>
-      </c>
-      <c r="C49" s="7">
-        <v>6</v>
-      </c>
-      <c r="D49" s="7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="6">
-        <v>46</v>
-      </c>
-      <c r="B50" s="6">
-        <v>14</v>
-      </c>
-      <c r="C50" s="6">
-        <v>2</v>
-      </c>
-      <c r="D50" s="6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="5">
-        <v>47</v>
-      </c>
-      <c r="B51" s="5">
-        <v>14</v>
-      </c>
-      <c r="C51" s="5">
-        <v>3</v>
-      </c>
-      <c r="D51" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
-        <v>48</v>
-      </c>
-      <c r="B52" s="5">
-        <v>14</v>
-      </c>
-      <c r="C52" s="5">
-        <v>7</v>
-      </c>
-      <c r="D52" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>49</v>
-      </c>
-      <c r="B53" s="5">
-        <v>14</v>
-      </c>
-      <c r="C53" s="5">
-        <v>12</v>
-      </c>
-      <c r="D53" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="5">
-        <v>50</v>
-      </c>
-      <c r="B54" s="5">
-        <v>14</v>
-      </c>
-      <c r="C54" s="5">
-        <v>15</v>
-      </c>
-      <c r="D54" s="5">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <ignoredErrors>
-    <ignoredError sqref="B4:D15 B18:D18 B16:C16 B17:C17 D16:D17" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/DataTable/StorageUpgradeCostTable.xlsx
+++ b/DataTable/StorageUpgradeCostTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unityProject\ProjectF\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seh00n/GitHub/ProjectF/DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FC3D3F12-BBD3-46B1-B01E-9A31FDD44780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9870B828-19CF-3543-83EB-B02020CFB06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="2360" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StorageUpgradeCostTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="4" uniqueCount="4">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="8" uniqueCount="5">
   <si>
     <t>id</t>
   </si>
@@ -49,12 +49,16 @@
   <si>
     <t>costValue</t>
   </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1040,27 +1044,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.5546875" style="2"/>
-    <col min="4" max="4" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.5703125" style="2"/>
+    <col min="4" max="4" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="19">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1074,773 +1081,787 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+    <row r="3" spans="1:4" ht="19">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4">
         <v>0</v>
-      </c>
-      <c r="B3" s="4">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>1</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
       </c>
       <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="4">
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+    <row r="6" spans="1:4">
+      <c r="A6" s="4">
         <v>2</v>
-      </c>
-      <c r="B5" s="4">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>3</v>
       </c>
       <c r="B6" s="4">
         <v>3</v>
       </c>
       <c r="C6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4">
         <v>2</v>
-      </c>
-      <c r="D7" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0</v>
       </c>
       <c r="D8" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="4">
         <v>4</v>
       </c>
       <c r="C9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="4">
         <v>4</v>
       </c>
       <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4">
         <v>2</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D11" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+    <row r="12" spans="1:4">
+      <c r="A12" s="4">
         <v>8</v>
-      </c>
-      <c r="B11" s="4">
-        <v>5</v>
-      </c>
-      <c r="C11" s="4">
-        <v>6</v>
-      </c>
-      <c r="D11" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>9</v>
       </c>
       <c r="B12" s="4">
         <v>5</v>
       </c>
       <c r="C12" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D12" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="4">
         <v>5</v>
       </c>
       <c r="C13" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D13" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="4">
         <v>5</v>
       </c>
       <c r="C14" s="4">
+        <v>7</v>
+      </c>
+      <c r="D14" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4">
         <v>0</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D15" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+    <row r="16" spans="1:4">
+      <c r="A16" s="4">
         <v>12</v>
-      </c>
-      <c r="B15" s="4">
-        <v>6</v>
-      </c>
-      <c r="C15" s="4">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>13</v>
       </c>
       <c r="B16" s="4">
         <v>6</v>
       </c>
       <c r="C16" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D16" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="4">
         <v>6</v>
       </c>
       <c r="C17" s="4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D17" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="4">
         <v>6</v>
       </c>
       <c r="C18" s="4">
+        <v>2</v>
+      </c>
+      <c r="D18" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4">
+        <v>6</v>
+      </c>
+      <c r="C19" s="4">
         <v>0</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D19" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+    <row r="20" spans="1:4">
+      <c r="A20" s="4">
         <v>16</v>
-      </c>
-      <c r="B19" s="4">
-        <v>7</v>
-      </c>
-      <c r="C19" s="4">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>17</v>
       </c>
       <c r="B20" s="4">
         <v>7</v>
       </c>
       <c r="C20" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D20" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="4">
         <v>7</v>
       </c>
       <c r="C21" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D21" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="4">
         <v>7</v>
       </c>
       <c r="C22" s="4">
+        <v>7</v>
+      </c>
+      <c r="D22" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4">
+        <v>19</v>
+      </c>
+      <c r="B23" s="4">
+        <v>7</v>
+      </c>
+      <c r="C23" s="4">
         <v>11</v>
-      </c>
-      <c r="D22" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>20</v>
-      </c>
-      <c r="B23" s="4">
-        <v>8</v>
-      </c>
-      <c r="C23" s="4">
-        <v>5</v>
       </c>
       <c r="D23" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="4">
         <v>8</v>
       </c>
       <c r="C24" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="4">
         <v>8</v>
       </c>
       <c r="C25" s="4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D25" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="4">
         <v>8</v>
       </c>
       <c r="C26" s="4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D26" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="4">
         <v>8</v>
       </c>
       <c r="C27" s="4">
+        <v>14</v>
+      </c>
+      <c r="D27" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="4">
+        <v>24</v>
+      </c>
+      <c r="B28" s="4">
+        <v>8</v>
+      </c>
+      <c r="C28" s="4">
         <v>9</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D28" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
+    <row r="29" spans="1:4">
+      <c r="A29" s="4">
         <v>25</v>
-      </c>
-      <c r="B28" s="4">
-        <v>9</v>
-      </c>
-      <c r="C28" s="4">
-        <v>5</v>
-      </c>
-      <c r="D28" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
-        <v>26</v>
       </c>
       <c r="B29" s="4">
         <v>9</v>
       </c>
       <c r="C29" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D29" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="4">
         <v>9</v>
       </c>
       <c r="C30" s="4">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D30" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="4">
         <v>9</v>
       </c>
       <c r="C31" s="4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D31" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="4">
         <v>9</v>
       </c>
       <c r="C32" s="4">
+        <v>15</v>
+      </c>
+      <c r="D32" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="4">
+        <v>29</v>
+      </c>
+      <c r="B33" s="4">
+        <v>9</v>
+      </c>
+      <c r="C33" s="4">
         <v>13</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D33" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
+    <row r="34" spans="1:4">
+      <c r="A34" s="4">
         <v>30</v>
-      </c>
-      <c r="B33" s="4">
-        <v>10</v>
-      </c>
-      <c r="C33" s="4">
-        <v>2</v>
-      </c>
-      <c r="D33" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
-        <v>31</v>
       </c>
       <c r="B34" s="4">
         <v>10</v>
       </c>
       <c r="C34" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D34" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="4">
         <v>10</v>
       </c>
       <c r="C35" s="4">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D35" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="4">
         <v>10</v>
       </c>
       <c r="C36" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D36" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="4">
         <v>10</v>
       </c>
       <c r="C37" s="4">
+        <v>23</v>
+      </c>
+      <c r="D37" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="4">
+        <v>34</v>
+      </c>
+      <c r="B38" s="4">
+        <v>10</v>
+      </c>
+      <c r="C38" s="4">
         <v>21</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D38" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
+    <row r="39" spans="1:4">
+      <c r="A39" s="4">
         <v>35</v>
-      </c>
-      <c r="B38" s="4">
-        <v>11</v>
-      </c>
-      <c r="C38" s="4">
-        <v>6</v>
-      </c>
-      <c r="D38" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
-        <v>36</v>
       </c>
       <c r="B39" s="4">
         <v>11</v>
       </c>
       <c r="C39" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D39" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40" s="4">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="4">
         <v>11</v>
       </c>
       <c r="C40" s="4">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D40" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="4">
         <v>11</v>
       </c>
       <c r="C41" s="4">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D41" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" s="4">
         <v>11</v>
       </c>
       <c r="C42" s="4">
+        <v>29</v>
+      </c>
+      <c r="D42" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="4">
+        <v>39</v>
+      </c>
+      <c r="B43" s="4">
+        <v>11</v>
+      </c>
+      <c r="C43" s="4">
         <v>32</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D43" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
+    <row r="44" spans="1:4">
+      <c r="A44" s="4">
         <v>40</v>
-      </c>
-      <c r="B43" s="4">
-        <v>12</v>
-      </c>
-      <c r="C43" s="4">
-        <v>9</v>
-      </c>
-      <c r="D43" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
-        <v>41</v>
       </c>
       <c r="B44" s="4">
         <v>12</v>
       </c>
       <c r="C44" s="4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D44" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="4">
         <v>12</v>
       </c>
       <c r="C45" s="4">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="D45" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="4">
         <v>12</v>
       </c>
       <c r="C46" s="4">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D46" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47" s="4">
         <v>12</v>
       </c>
       <c r="C47" s="4">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D47" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="4">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C48" s="4">
         <v>2</v>
       </c>
       <c r="D48" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="4">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" s="4">
         <v>13</v>
       </c>
       <c r="C49" s="4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D49" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="4">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50" s="4">
         <v>13</v>
       </c>
       <c r="C50" s="4">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D50" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="4">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" s="4">
         <v>13</v>
       </c>
       <c r="C51" s="4">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D51" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="4">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" s="4">
         <v>13</v>
       </c>
       <c r="C52" s="4">
+        <v>0</v>
+      </c>
+      <c r="D52" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="4">
+        <v>49</v>
+      </c>
+      <c r="B53" s="4">
+        <v>13</v>
+      </c>
+      <c r="C53" s="4">
         <v>42</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D53" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
+    <row r="54" spans="1:4">
+      <c r="A54" s="4">
         <v>50</v>
-      </c>
-      <c r="B53" s="4">
-        <v>14</v>
-      </c>
-      <c r="C53" s="4">
-        <v>9</v>
-      </c>
-      <c r="D53" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="4">
-        <v>51</v>
       </c>
       <c r="B54" s="4">
         <v>14</v>
       </c>
       <c r="C54" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D54" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="4">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B55" s="4">
         <v>14</v>
       </c>
       <c r="C55" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D55" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B56" s="4">
         <v>14</v>
       </c>
       <c r="C56" s="4">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D56" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4">
       <c r="A57" s="4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B57" s="4">
         <v>14</v>
       </c>
       <c r="C57" s="4">
+        <v>36</v>
+      </c>
+      <c r="D57" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="4">
+        <v>54</v>
+      </c>
+      <c r="B58" s="4">
+        <v>14</v>
+      </c>
+      <c r="C58" s="4">
         <v>8</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D58" s="4">
         <v>10</v>
       </c>
     </row>
